--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_51_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_51_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[5.47106178777705, 6.047221782059666]</t>
+          <t>[5.483730234764408, 6.034553335072308]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.09666875032614275, 0.4178151828473302]</t>
+          <t>[0.09663042423554824, 0.4178535089379247]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.002337406748848192</v>
+        <v>0.002342506946615863</v>
       </c>
       <c r="V2" t="n">
-        <v>0.002337406748848192</v>
+        <v>0.002342506946615863</v>
       </c>
       <c r="W2" t="n">
         <v>6.880320320320443</v>
